--- a/FY2018_Q1_UAS_Sightings.xlsx
+++ b/FY2018_Q1_UAS_Sightings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Old AOC Archives As Of March 2018\300\LDORR\UAS STUFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcgar\Documents\DATA_SCIENCE\AmericanU\AU_drones_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BC2578-5A9F-4CE4-8CF7-F76B17C19775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10860"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FY18 Q1 Sightings" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="645">
   <si>
     <t>City</t>
   </si>
@@ -5787,13 +5788,16 @@
   </si>
   <si>
     <t>Date of Sighting</t>
+  </si>
+  <si>
+    <t>IOWA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5807,6 +5811,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5874,7 +5884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5911,6 +5921,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6080,16 +6093,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D426" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D426"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D428" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D428" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:D426">
     <sortCondition ref="A1:A426"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date of Sighting" dataDxfId="3"/>
-    <tableColumn id="2" name="City" dataDxfId="2"/>
-    <tableColumn id="3" name="State" dataDxfId="1"/>
-    <tableColumn id="4" name="Summary" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date of Sighting" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="City" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Summary" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6357,23 +6370,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D426"/>
+  <dimension ref="A1:D428"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A426" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B432" sqref="B432"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="21.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="107.7109375" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="42.28515625" style="4"/>
+    <col min="1" max="1" width="22.26953125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="21.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="107.7265625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="42.26953125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>643</v>
       </c>
@@ -6387,7 +6400,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>43009</v>
       </c>
@@ -6401,7 +6414,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>43009</v>
       </c>
@@ -6415,7 +6428,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>43009</v>
       </c>
@@ -6429,7 +6442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>43009</v>
       </c>
@@ -6443,7 +6456,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>43009</v>
       </c>
@@ -6457,7 +6470,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>43009</v>
       </c>
@@ -6471,7 +6484,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>43009</v>
       </c>
@@ -6485,7 +6498,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>43009</v>
       </c>
@@ -6499,7 +6512,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>43009</v>
       </c>
@@ -6513,7 +6526,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>43009</v>
       </c>
@@ -6527,7 +6540,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>43009</v>
       </c>
@@ -6541,7 +6554,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>43009</v>
       </c>
@@ -6555,7 +6568,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>43010</v>
       </c>
@@ -6569,7 +6582,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>43010</v>
       </c>
@@ -6583,7 +6596,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>43011</v>
       </c>
@@ -6597,7 +6610,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>43011</v>
       </c>
@@ -6611,7 +6624,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43011</v>
       </c>
@@ -6625,7 +6638,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>43011</v>
       </c>
@@ -6639,7 +6652,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>43011</v>
       </c>
@@ -6653,7 +6666,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>43011</v>
       </c>
@@ -6667,7 +6680,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>43011</v>
       </c>
@@ -6681,7 +6694,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>43012</v>
       </c>
@@ -6695,7 +6708,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>43013</v>
       </c>
@@ -6709,7 +6722,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>43013</v>
       </c>
@@ -6723,7 +6736,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>43013</v>
       </c>
@@ -6737,7 +6750,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>43013</v>
       </c>
@@ -6751,7 +6764,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>43014</v>
       </c>
@@ -6765,7 +6778,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>43014</v>
       </c>
@@ -6779,7 +6792,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>43014</v>
       </c>
@@ -6793,7 +6806,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>43014</v>
       </c>
@@ -6807,7 +6820,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>43014</v>
       </c>
@@ -6821,7 +6834,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>43014</v>
       </c>
@@ -6835,7 +6848,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>43015</v>
       </c>
@@ -6849,7 +6862,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>43015</v>
       </c>
@@ -6863,7 +6876,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>43015</v>
       </c>
@@ -6877,7 +6890,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>43015</v>
       </c>
@@ -6891,7 +6904,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>43015</v>
       </c>
@@ -6905,7 +6918,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>43015</v>
       </c>
@@ -6919,7 +6932,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>43015</v>
       </c>
@@ -6933,7 +6946,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>43015</v>
       </c>
@@ -6947,7 +6960,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>43015</v>
       </c>
@@ -6961,7 +6974,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>43016</v>
       </c>
@@ -6975,7 +6988,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43016</v>
       </c>
@@ -6989,7 +7002,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>43016</v>
       </c>
@@ -7003,7 +7016,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>43016</v>
       </c>
@@ -7017,7 +7030,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>43016</v>
       </c>
@@ -7031,7 +7044,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>43017</v>
       </c>
@@ -7045,7 +7058,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>43018</v>
       </c>
@@ -7059,7 +7072,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>43019</v>
       </c>
@@ -7073,7 +7086,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>43019</v>
       </c>
@@ -7087,7 +7100,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>43019</v>
       </c>
@@ -7101,7 +7114,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>43019</v>
       </c>
@@ -7115,7 +7128,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>43019</v>
       </c>
@@ -7129,7 +7142,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>43019</v>
       </c>
@@ -7143,7 +7156,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>43020</v>
       </c>
@@ -7157,7 +7170,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>43020</v>
       </c>
@@ -7171,7 +7184,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>43020</v>
       </c>
@@ -7185,7 +7198,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>43020</v>
       </c>
@@ -7199,7 +7212,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>43020</v>
       </c>
@@ -7213,7 +7226,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>43020</v>
       </c>
@@ -7227,7 +7240,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>43020</v>
       </c>
@@ -7241,7 +7254,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>43021</v>
       </c>
@@ -7255,7 +7268,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>43021</v>
       </c>
@@ -7269,7 +7282,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>43021</v>
       </c>
@@ -7283,7 +7296,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>43021</v>
       </c>
@@ -7297,7 +7310,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>43021</v>
       </c>
@@ -7311,7 +7324,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>43021</v>
       </c>
@@ -7325,7 +7338,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>43022</v>
       </c>
@@ -7339,7 +7352,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>43022</v>
       </c>
@@ -7353,7 +7366,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>43022</v>
       </c>
@@ -7367,7 +7380,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>43022</v>
       </c>
@@ -7381,7 +7394,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>43022</v>
       </c>
@@ -7395,7 +7408,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>43022</v>
       </c>
@@ -7409,7 +7422,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>43022</v>
       </c>
@@ -7423,7 +7436,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>43022</v>
       </c>
@@ -7437,7 +7450,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>43022</v>
       </c>
@@ -7451,7 +7464,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>43022</v>
       </c>
@@ -7465,7 +7478,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>43023</v>
       </c>
@@ -7479,7 +7492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>43023</v>
       </c>
@@ -7493,7 +7506,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>43023</v>
       </c>
@@ -7507,7 +7520,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>43023</v>
       </c>
@@ -7521,7 +7534,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>43023</v>
       </c>
@@ -7535,7 +7548,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>43023</v>
       </c>
@@ -7549,7 +7562,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>43023</v>
       </c>
@@ -7563,7 +7576,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>43023</v>
       </c>
@@ -7577,7 +7590,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>43023</v>
       </c>
@@ -7591,7 +7604,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>43024</v>
       </c>
@@ -7605,7 +7618,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>43024</v>
       </c>
@@ -7619,7 +7632,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>43024</v>
       </c>
@@ -7633,7 +7646,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>43024</v>
       </c>
@@ -7647,7 +7660,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>43024</v>
       </c>
@@ -7661,7 +7674,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>43024</v>
       </c>
@@ -7675,7 +7688,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>43025</v>
       </c>
@@ -7689,7 +7702,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>43025</v>
       </c>
@@ -7703,7 +7716,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>43025</v>
       </c>
@@ -7717,7 +7730,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>43025</v>
       </c>
@@ -7731,7 +7744,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>43025</v>
       </c>
@@ -7745,7 +7758,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>43026</v>
       </c>
@@ -7759,7 +7772,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>43026</v>
       </c>
@@ -7773,7 +7786,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>43026</v>
       </c>
@@ -7787,7 +7800,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>43026</v>
       </c>
@@ -7801,7 +7814,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>43026</v>
       </c>
@@ -7815,7 +7828,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>43026</v>
       </c>
@@ -7829,7 +7842,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>43026</v>
       </c>
@@ -7843,7 +7856,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>43026</v>
       </c>
@@ -7857,7 +7870,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>43027</v>
       </c>
@@ -7871,7 +7884,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>43027</v>
       </c>
@@ -7885,7 +7898,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>43027</v>
       </c>
@@ -7899,7 +7912,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>43027</v>
       </c>
@@ -7913,7 +7926,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>43027</v>
       </c>
@@ -7927,7 +7940,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>43027</v>
       </c>
@@ -7941,7 +7954,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>43027</v>
       </c>
@@ -7955,7 +7968,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>43027</v>
       </c>
@@ -7969,7 +7982,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>43028</v>
       </c>
@@ -7983,7 +7996,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>43028</v>
       </c>
@@ -7997,7 +8010,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>43028</v>
       </c>
@@ -8011,7 +8024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>43028</v>
       </c>
@@ -8025,7 +8038,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>43028</v>
       </c>
@@ -8039,7 +8052,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>43028</v>
       </c>
@@ -8053,7 +8066,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>43028</v>
       </c>
@@ -8067,7 +8080,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>43028</v>
       </c>
@@ -8081,7 +8094,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>43028</v>
       </c>
@@ -8095,7 +8108,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>43029</v>
       </c>
@@ -8109,7 +8122,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>43029</v>
       </c>
@@ -8123,7 +8136,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>43029</v>
       </c>
@@ -8137,7 +8150,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>43029</v>
       </c>
@@ -8151,7 +8164,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>43029</v>
       </c>
@@ -8165,7 +8178,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>43029</v>
       </c>
@@ -8179,7 +8192,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>43029</v>
       </c>
@@ -8193,7 +8206,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>43029</v>
       </c>
@@ -8207,7 +8220,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>43029</v>
       </c>
@@ -8221,7 +8234,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>43029</v>
       </c>
@@ -8235,7 +8248,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>43029</v>
       </c>
@@ -8249,7 +8262,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>43030</v>
       </c>
@@ -8263,7 +8276,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>43030</v>
       </c>
@@ -8277,7 +8290,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>43030</v>
       </c>
@@ -8291,7 +8304,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>43030</v>
       </c>
@@ -8305,7 +8318,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>43030</v>
       </c>
@@ -8319,7 +8332,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>43030</v>
       </c>
@@ -8333,7 +8346,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>43030</v>
       </c>
@@ -8347,7 +8360,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>43030</v>
       </c>
@@ -8361,7 +8374,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>43030</v>
       </c>
@@ -8375,7 +8388,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>43030</v>
       </c>
@@ -8389,7 +8402,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>43030</v>
       </c>
@@ -8403,7 +8416,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>43030</v>
       </c>
@@ -8417,7 +8430,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>43030</v>
       </c>
@@ -8431,7 +8444,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>43030</v>
       </c>
@@ -8445,7 +8458,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>43030</v>
       </c>
@@ -8459,7 +8472,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>43030</v>
       </c>
@@ -8473,7 +8486,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>43030</v>
       </c>
@@ -8487,7 +8500,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>43030</v>
       </c>
@@ -8501,7 +8514,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>43031</v>
       </c>
@@ -8515,7 +8528,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>43031</v>
       </c>
@@ -8529,7 +8542,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>43031</v>
       </c>
@@ -8543,7 +8556,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>43031</v>
       </c>
@@ -8557,7 +8570,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>43031</v>
       </c>
@@ -8571,7 +8584,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>43032</v>
       </c>
@@ -8585,7 +8598,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>43032</v>
       </c>
@@ -8599,7 +8612,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>43032</v>
       </c>
@@ -8613,7 +8626,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>43032</v>
       </c>
@@ -8627,7 +8640,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>43033</v>
       </c>
@@ -8641,7 +8654,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>43033</v>
       </c>
@@ -8655,7 +8668,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>43034</v>
       </c>
@@ -8669,7 +8682,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>43034</v>
       </c>
@@ -8683,7 +8696,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>43034</v>
       </c>
@@ -8697,7 +8710,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>43034</v>
       </c>
@@ -8711,7 +8724,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>43034</v>
       </c>
@@ -8725,7 +8738,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>43035</v>
       </c>
@@ -8739,7 +8752,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>43035</v>
       </c>
@@ -8753,7 +8766,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>43035</v>
       </c>
@@ -8767,7 +8780,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>43035</v>
       </c>
@@ -8781,7 +8794,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>43035</v>
       </c>
@@ -8795,7 +8808,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>43036</v>
       </c>
@@ -8809,7 +8822,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>43036</v>
       </c>
@@ -8823,7 +8836,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>43036</v>
       </c>
@@ -8837,7 +8850,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>43036</v>
       </c>
@@ -8851,7 +8864,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>43037</v>
       </c>
@@ -8865,7 +8878,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>43038</v>
       </c>
@@ -8879,7 +8892,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>43038</v>
       </c>
@@ -8893,7 +8906,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>43038</v>
       </c>
@@ -8907,7 +8920,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>43038</v>
       </c>
@@ -8921,7 +8934,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>43038</v>
       </c>
@@ -8935,7 +8948,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>43038</v>
       </c>
@@ -8949,7 +8962,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>43040</v>
       </c>
@@ -8963,7 +8976,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>43040</v>
       </c>
@@ -8977,7 +8990,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>43040</v>
       </c>
@@ -8991,7 +9004,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>43040</v>
       </c>
@@ -9005,7 +9018,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>43041</v>
       </c>
@@ -9019,7 +9032,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
         <v>43041</v>
       </c>
@@ -9033,7 +9046,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>43041</v>
       </c>
@@ -9047,7 +9060,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>43041</v>
       </c>
@@ -9061,7 +9074,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>43041</v>
       </c>
@@ -9075,7 +9088,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>43042</v>
       </c>
@@ -9089,7 +9102,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>43042</v>
       </c>
@@ -9103,7 +9116,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>43042</v>
       </c>
@@ -9117,7 +9130,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
         <v>43042</v>
       </c>
@@ -9131,7 +9144,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
         <v>43043</v>
       </c>
@@ -9145,7 +9158,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
         <v>43043</v>
       </c>
@@ -9159,7 +9172,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
         <v>43043</v>
       </c>
@@ -9173,7 +9186,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>43043</v>
       </c>
@@ -9187,7 +9200,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
         <v>43043</v>
       </c>
@@ -9201,7 +9214,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>43043</v>
       </c>
@@ -9215,7 +9228,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>43043</v>
       </c>
@@ -9229,7 +9242,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
         <v>43044</v>
       </c>
@@ -9243,7 +9256,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
         <v>43045</v>
       </c>
@@ -9257,7 +9270,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
         <v>43045</v>
       </c>
@@ -9271,7 +9284,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
         <v>43046</v>
       </c>
@@ -9285,7 +9298,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
         <v>43046</v>
       </c>
@@ -9299,7 +9312,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
         <v>43046</v>
       </c>
@@ -9313,7 +9326,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>43046</v>
       </c>
@@ -9327,7 +9340,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
         <v>43046</v>
       </c>
@@ -9341,7 +9354,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
         <v>43047</v>
       </c>
@@ -9355,7 +9368,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
         <v>43047</v>
       </c>
@@ -9369,7 +9382,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>43048</v>
       </c>
@@ -9383,7 +9396,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
         <v>43048</v>
       </c>
@@ -9397,7 +9410,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
         <v>43048</v>
       </c>
@@ -9411,7 +9424,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
         <v>43048</v>
       </c>
@@ -9425,7 +9438,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
         <v>43049</v>
       </c>
@@ -9439,7 +9452,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
         <v>43049</v>
       </c>
@@ -9453,7 +9466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>43049</v>
       </c>
@@ -9467,7 +9480,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
         <v>43049</v>
       </c>
@@ -9481,7 +9494,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
         <v>43049</v>
       </c>
@@ -9495,7 +9508,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
         <v>43049</v>
       </c>
@@ -9509,7 +9522,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
         <v>43049</v>
       </c>
@@ -9523,7 +9536,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
         <v>43050</v>
       </c>
@@ -9537,7 +9550,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
         <v>43050</v>
       </c>
@@ -9551,7 +9564,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A228" s="5">
         <v>43050</v>
       </c>
@@ -9565,7 +9578,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A229" s="5">
         <v>43050</v>
       </c>
@@ -9579,7 +9592,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
         <v>43050</v>
       </c>
@@ -9593,7 +9606,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
         <v>43050</v>
       </c>
@@ -9607,7 +9620,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A232" s="5">
         <v>43050</v>
       </c>
@@ -9621,7 +9634,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
         <v>43050</v>
       </c>
@@ -9635,7 +9648,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
         <v>43051</v>
       </c>
@@ -9649,7 +9662,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
         <v>43051</v>
       </c>
@@ -9663,7 +9676,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A236" s="5">
         <v>43051</v>
       </c>
@@ -9677,7 +9690,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A237" s="5">
         <v>43051</v>
       </c>
@@ -9691,7 +9704,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A238" s="5">
         <v>43051</v>
       </c>
@@ -9705,7 +9718,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
         <v>43052</v>
       </c>
@@ -9719,7 +9732,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
         <v>43052</v>
       </c>
@@ -9733,7 +9746,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
         <v>43052</v>
       </c>
@@ -9747,7 +9760,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
         <v>43053</v>
       </c>
@@ -9761,7 +9774,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A243" s="5">
         <v>43053</v>
       </c>
@@ -9775,7 +9788,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
         <v>43053</v>
       </c>
@@ -9789,7 +9802,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
         <v>43053</v>
       </c>
@@ -9803,7 +9816,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
         <v>43053</v>
       </c>
@@ -9817,7 +9830,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A247" s="5">
         <v>43053</v>
       </c>
@@ -9831,7 +9844,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
         <v>43053</v>
       </c>
@@ -9845,7 +9858,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
         <v>43053</v>
       </c>
@@ -9859,7 +9872,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A250" s="5">
         <v>43053</v>
       </c>
@@ -9873,7 +9886,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A251" s="5">
         <v>43053</v>
       </c>
@@ -9887,7 +9900,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A252" s="5">
         <v>43053</v>
       </c>
@@ -9901,7 +9914,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
         <v>43054</v>
       </c>
@@ -9915,7 +9928,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A254" s="5">
         <v>43055</v>
       </c>
@@ -9929,7 +9942,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A255" s="5">
         <v>43055</v>
       </c>
@@ -9943,7 +9956,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A256" s="5">
         <v>43055</v>
       </c>
@@ -9957,7 +9970,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A257" s="5">
         <v>43055</v>
       </c>
@@ -9971,7 +9984,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A258" s="5">
         <v>43056</v>
       </c>
@@ -9985,7 +9998,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
         <v>43056</v>
       </c>
@@ -9999,7 +10012,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A260" s="5">
         <v>43057</v>
       </c>
@@ -10013,7 +10026,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
         <v>43057</v>
       </c>
@@ -10027,7 +10040,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A262" s="5">
         <v>43057</v>
       </c>
@@ -10041,7 +10054,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
         <v>43057</v>
       </c>
@@ -10055,7 +10068,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
         <v>43057</v>
       </c>
@@ -10069,7 +10082,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A265" s="5">
         <v>43058</v>
       </c>
@@ -10083,7 +10096,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A266" s="5">
         <v>43058</v>
       </c>
@@ -10097,7 +10110,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
         <v>43058</v>
       </c>
@@ -10111,7 +10124,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
         <v>43058</v>
       </c>
@@ -10125,7 +10138,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
         <v>43058</v>
       </c>
@@ -10139,7 +10152,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A270" s="5">
         <v>43059</v>
       </c>
@@ -10153,7 +10166,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A271" s="5">
         <v>43059</v>
       </c>
@@ -10167,7 +10180,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A272" s="5">
         <v>43059</v>
       </c>
@@ -10181,7 +10194,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A273" s="5">
         <v>43059</v>
       </c>
@@ -10195,7 +10208,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A274" s="5">
         <v>43060</v>
       </c>
@@ -10209,7 +10222,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A275" s="5">
         <v>43060</v>
       </c>
@@ -10223,7 +10236,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A276" s="5">
         <v>43061</v>
       </c>
@@ -10237,7 +10250,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A277" s="5">
         <v>43061</v>
       </c>
@@ -10251,7 +10264,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A278" s="5">
         <v>43061</v>
       </c>
@@ -10265,7 +10278,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A279" s="5">
         <v>43061</v>
       </c>
@@ -10279,7 +10292,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A280" s="5">
         <v>43061</v>
       </c>
@@ -10293,7 +10306,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
         <v>43061</v>
       </c>
@@ -10307,7 +10320,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A282" s="5">
         <v>43061</v>
       </c>
@@ -10321,7 +10334,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A283" s="5">
         <v>43062</v>
       </c>
@@ -10335,7 +10348,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A284" s="5">
         <v>43062</v>
       </c>
@@ -10349,7 +10362,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A285" s="5">
         <v>43062</v>
       </c>
@@ -10363,7 +10376,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A286" s="5">
         <v>43063</v>
       </c>
@@ -10377,7 +10390,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
         <v>43063</v>
       </c>
@@ -10391,7 +10404,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A288" s="5">
         <v>43063</v>
       </c>
@@ -10405,7 +10418,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A289" s="5">
         <v>43063</v>
       </c>
@@ -10419,7 +10432,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A290" s="5">
         <v>43063</v>
       </c>
@@ -10433,7 +10446,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A291" s="5">
         <v>43064</v>
       </c>
@@ -10447,7 +10460,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A292" s="5">
         <v>43064</v>
       </c>
@@ -10461,7 +10474,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A293" s="5">
         <v>43064</v>
       </c>
@@ -10475,7 +10488,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A294" s="5">
         <v>43064</v>
       </c>
@@ -10489,7 +10502,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A295" s="5">
         <v>43064</v>
       </c>
@@ -10503,7 +10516,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A296" s="5">
         <v>43064</v>
       </c>
@@ -10517,7 +10530,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A297" s="5">
         <v>43064</v>
       </c>
@@ -10531,7 +10544,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A298" s="5">
         <v>43064</v>
       </c>
@@ -10545,7 +10558,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A299" s="5">
         <v>43065</v>
       </c>
@@ -10559,7 +10572,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A300" s="5">
         <v>43065</v>
       </c>
@@ -10573,7 +10586,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A301" s="5">
         <v>43065</v>
       </c>
@@ -10587,7 +10600,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A302" s="5">
         <v>43065</v>
       </c>
@@ -10601,7 +10614,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A303" s="5">
         <v>43065</v>
       </c>
@@ -10615,7 +10628,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A304" s="5">
         <v>43065</v>
       </c>
@@ -10629,7 +10642,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A305" s="5">
         <v>43065</v>
       </c>
@@ -10643,7 +10656,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A306" s="5">
         <v>43065</v>
       </c>
@@ -10657,7 +10670,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A307" s="5">
         <v>43065</v>
       </c>
@@ -10671,7 +10684,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A308" s="5">
         <v>43065</v>
       </c>
@@ -10685,7 +10698,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A309" s="5">
         <v>43066</v>
       </c>
@@ -10699,7 +10712,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A310" s="5">
         <v>43066</v>
       </c>
@@ -10713,7 +10726,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A311" s="5">
         <v>43066</v>
       </c>
@@ -10727,7 +10740,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A312" s="5">
         <v>43067</v>
       </c>
@@ -10741,7 +10754,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A313" s="5">
         <v>43067</v>
       </c>
@@ -10755,7 +10768,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A314" s="5">
         <v>43067</v>
       </c>
@@ -10769,7 +10782,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A315" s="5">
         <v>43067</v>
       </c>
@@ -10783,7 +10796,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A316" s="5">
         <v>43067</v>
       </c>
@@ -10797,7 +10810,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A317" s="5">
         <v>43067</v>
       </c>
@@ -10811,7 +10824,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A318" s="5">
         <v>43068</v>
       </c>
@@ -10825,7 +10838,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A319" s="5">
         <v>43068</v>
       </c>
@@ -10839,7 +10852,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A320" s="5">
         <v>43070</v>
       </c>
@@ -10853,7 +10866,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A321" s="5">
         <v>43070</v>
       </c>
@@ -10867,7 +10880,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A322" s="5">
         <v>43070</v>
       </c>
@@ -10881,7 +10894,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A323" s="5">
         <v>43070</v>
       </c>
@@ -10895,7 +10908,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A324" s="5">
         <v>43070</v>
       </c>
@@ -10909,7 +10922,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A325" s="5">
         <v>43070</v>
       </c>
@@ -10923,7 +10936,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A326" s="5">
         <v>43071</v>
       </c>
@@ -10937,7 +10950,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A327" s="5">
         <v>43071</v>
       </c>
@@ -10951,7 +10964,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A328" s="5">
         <v>43071</v>
       </c>
@@ -10965,7 +10978,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A329" s="5">
         <v>43071</v>
       </c>
@@ -10979,7 +10992,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A330" s="5">
         <v>43071</v>
       </c>
@@ -10993,7 +11006,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A331" s="5">
         <v>43071</v>
       </c>
@@ -11007,7 +11020,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A332" s="5">
         <v>43071</v>
       </c>
@@ -11021,7 +11034,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A333" s="5">
         <v>43071</v>
       </c>
@@ -11035,7 +11048,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A334" s="5">
         <v>43072</v>
       </c>
@@ -11049,7 +11062,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A335" s="5">
         <v>43072</v>
       </c>
@@ -11063,7 +11076,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A336" s="5">
         <v>43072</v>
       </c>
@@ -11077,7 +11090,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A337" s="5">
         <v>43072</v>
       </c>
@@ -11091,7 +11104,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A338" s="5">
         <v>43072</v>
       </c>
@@ -11105,7 +11118,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A339" s="5">
         <v>43072</v>
       </c>
@@ -11119,7 +11132,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A340" s="5">
         <v>43073</v>
       </c>
@@ -11133,7 +11146,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A341" s="5">
         <v>43073</v>
       </c>
@@ -11147,7 +11160,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A342" s="5">
         <v>43073</v>
       </c>
@@ -11161,7 +11174,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A343" s="5">
         <v>43074</v>
       </c>
@@ -11175,7 +11188,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A344" s="5">
         <v>43074</v>
       </c>
@@ -11189,7 +11202,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A345" s="5">
         <v>43074</v>
       </c>
@@ -11203,7 +11216,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A346" s="5">
         <v>43076</v>
       </c>
@@ -11217,7 +11230,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A347" s="5">
         <v>43076</v>
       </c>
@@ -11231,7 +11244,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A348" s="5">
         <v>43077</v>
       </c>
@@ -11245,7 +11258,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A349" s="5">
         <v>43077</v>
       </c>
@@ -11259,7 +11272,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A350" s="5">
         <v>43077</v>
       </c>
@@ -11273,7 +11286,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A351" s="5">
         <v>43077</v>
       </c>
@@ -11287,7 +11300,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A352" s="5">
         <v>43077</v>
       </c>
@@ -11301,7 +11314,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A353" s="5">
         <v>43077</v>
       </c>
@@ -11315,7 +11328,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A354" s="5">
         <v>43077</v>
       </c>
@@ -11329,7 +11342,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A355" s="5">
         <v>43078</v>
       </c>
@@ -11343,7 +11356,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A356" s="5">
         <v>43078</v>
       </c>
@@ -11357,7 +11370,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A357" s="5">
         <v>43078</v>
       </c>
@@ -11371,7 +11384,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A358" s="5">
         <v>43078</v>
       </c>
@@ -11385,7 +11398,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A359" s="5">
         <v>43079</v>
       </c>
@@ -11399,7 +11412,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A360" s="5">
         <v>43079</v>
       </c>
@@ -11413,7 +11426,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A361" s="5">
         <v>43079</v>
       </c>
@@ -11427,7 +11440,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A362" s="5">
         <v>43080</v>
       </c>
@@ -11441,7 +11454,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A363" s="5">
         <v>43080</v>
       </c>
@@ -11455,7 +11468,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A364" s="5">
         <v>43080</v>
       </c>
@@ -11469,7 +11482,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A365" s="5">
         <v>43081</v>
       </c>
@@ -11483,7 +11496,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A366" s="5">
         <v>43081</v>
       </c>
@@ -11497,7 +11510,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A367" s="5">
         <v>43081</v>
       </c>
@@ -11511,7 +11524,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A368" s="5">
         <v>43082</v>
       </c>
@@ -11525,7 +11538,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A369" s="5">
         <v>43082</v>
       </c>
@@ -11539,7 +11552,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A370" s="5">
         <v>43082</v>
       </c>
@@ -11553,7 +11566,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A371" s="5">
         <v>43082</v>
       </c>
@@ -11567,7 +11580,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A372" s="5">
         <v>43082</v>
       </c>
@@ -11581,7 +11594,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A373" s="5">
         <v>43083</v>
       </c>
@@ -11595,7 +11608,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A374" s="5">
         <v>43083</v>
       </c>
@@ -11609,7 +11622,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A375" s="5">
         <v>43083</v>
       </c>
@@ -11623,7 +11636,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A376" s="5">
         <v>43083</v>
       </c>
@@ -11637,7 +11650,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A377" s="5">
         <v>43084</v>
       </c>
@@ -11651,7 +11664,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A378" s="5">
         <v>43085</v>
       </c>
@@ -11665,7 +11678,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A379" s="5">
         <v>43085</v>
       </c>
@@ -11679,7 +11692,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A380" s="5">
         <v>43085</v>
       </c>
@@ -11693,7 +11706,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A381" s="5">
         <v>43085</v>
       </c>
@@ -11707,7 +11720,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A382" s="5">
         <v>43086</v>
       </c>
@@ -11721,7 +11734,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A383" s="5">
         <v>43086</v>
       </c>
@@ -11735,7 +11748,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A384" s="5">
         <v>43086</v>
       </c>
@@ -11749,7 +11762,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A385" s="5">
         <v>43086</v>
       </c>
@@ -11763,7 +11776,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A386" s="5">
         <v>43086</v>
       </c>
@@ -11777,7 +11790,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A387" s="5">
         <v>43087</v>
       </c>
@@ -11791,7 +11804,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A388" s="5">
         <v>43087</v>
       </c>
@@ -11805,7 +11818,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A389" s="5">
         <v>43087</v>
       </c>
@@ -11819,7 +11832,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A390" s="5">
         <v>43087</v>
       </c>
@@ -11833,7 +11846,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A391" s="5">
         <v>43087</v>
       </c>
@@ -11847,7 +11860,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A392" s="5">
         <v>43087</v>
       </c>
@@ -11861,7 +11874,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A393" s="5">
         <v>43088</v>
       </c>
@@ -11875,7 +11888,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A394" s="5">
         <v>43089</v>
       </c>
@@ -11889,7 +11902,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A395" s="5">
         <v>43090</v>
       </c>
@@ -11903,7 +11916,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A396" s="5">
         <v>43090</v>
       </c>
@@ -11917,7 +11930,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A397" s="5">
         <v>43090</v>
       </c>
@@ -11931,7 +11944,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A398" s="5">
         <v>43091</v>
       </c>
@@ -11945,7 +11958,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A399" s="5">
         <v>43092</v>
       </c>
@@ -11959,7 +11972,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A400" s="5">
         <v>43092</v>
       </c>
@@ -11973,7 +11986,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A401" s="5">
         <v>43092</v>
       </c>
@@ -11987,7 +12000,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A402" s="5">
         <v>43093</v>
       </c>
@@ -12001,7 +12014,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A403" s="5">
         <v>43093</v>
       </c>
@@ -12015,7 +12028,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A404" s="5">
         <v>43094</v>
       </c>
@@ -12029,7 +12042,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A405" s="5">
         <v>43094</v>
       </c>
@@ -12043,7 +12056,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A406" s="5">
         <v>43094</v>
       </c>
@@ -12057,7 +12070,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A407" s="5">
         <v>43094</v>
       </c>
@@ -12071,7 +12084,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A408" s="5">
         <v>43094</v>
       </c>
@@ -12085,7 +12098,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A409" s="5">
         <v>43095</v>
       </c>
@@ -12099,7 +12112,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A410" s="5">
         <v>43095</v>
       </c>
@@ -12113,7 +12126,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A411" s="5">
         <v>43095</v>
       </c>
@@ -12127,7 +12140,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A412" s="5">
         <v>43095</v>
       </c>
@@ -12141,7 +12154,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A413" s="5">
         <v>43096</v>
       </c>
@@ -12155,7 +12168,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A414" s="5">
         <v>43097</v>
       </c>
@@ -12169,7 +12182,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A415" s="5">
         <v>43097</v>
       </c>
@@ -12183,7 +12196,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A416" s="5">
         <v>43097</v>
       </c>
@@ -12197,7 +12210,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A417" s="5">
         <v>43097</v>
       </c>
@@ -12211,7 +12224,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A418" s="5">
         <v>43098</v>
       </c>
@@ -12225,7 +12238,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A419" s="5">
         <v>43099</v>
       </c>
@@ -12239,7 +12252,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A420" s="5">
         <v>43099</v>
       </c>
@@ -12253,7 +12266,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A421" s="5">
         <v>43099</v>
       </c>
@@ -12267,7 +12280,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A422" s="5">
         <v>43099</v>
       </c>
@@ -12281,7 +12294,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A423" s="5">
         <v>43100</v>
       </c>
@@ -12295,7 +12308,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A424" s="5">
         <v>43100</v>
       </c>
@@ -12309,7 +12322,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A425" s="5">
         <v>43100</v>
       </c>
@@ -12323,7 +12336,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A426" s="8">
         <v>43100</v>
       </c>
@@ -12336,6 +12349,30 @@
       <c r="D426" s="11" t="s">
         <v>260</v>
       </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A427" s="13">
+        <v>43100</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C427" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D427" s="11"/>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A428" s="13">
+        <v>43100</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C428" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D428" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
